--- a/Caracteristicas/DM/CorrelacióncaracteristicasRE.xlsx
+++ b/Caracteristicas/DM/CorrelacióncaracteristicasRE.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -364,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -485,6 +491,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="CF39" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16038,314 +16049,314 @@
         <v>-0.56597567791227288</v>
       </c>
     </row>
-    <row r="50" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="17">
         <v>-0.1099579868290857</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="17">
         <v>0.1147665408950047</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="17">
         <v>-3.4378216126722823E-2</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="17">
         <v>-8.603200901981857E-2</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="17">
         <v>-0.1027385291327713</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="17">
         <v>9.4480327857249594E-2</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="17">
         <v>-3.6170237904920993E-2</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="17">
         <v>4.6089505093547707E-2</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="17">
         <v>8.0747938269834479E-2</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="17">
         <v>-4.7100988844205147E-2</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="17">
         <v>-5.9209431799529623E-2</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="17">
         <v>6.7027865687730294E-4</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="17">
         <v>0.1157260829290853</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="17">
         <v>-2.8945347838103621E-2</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="17">
         <v>2.1669396934113419E-2</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="17">
         <v>7.330961527619527E-2</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="17">
         <v>7.8790512422295844E-2</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="17">
         <v>-2.393642380057992E-2</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="17">
         <v>7.8784927428827436E-2</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="17">
         <v>0.1030759036049711</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="17">
         <v>6.4378833559519399E-2</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W50" s="17">
         <v>8.2886283884943804E-2</v>
       </c>
-      <c r="X50">
+      <c r="X50" s="17">
         <v>2.1851246883508681E-2</v>
       </c>
-      <c r="Y50">
+      <c r="Y50" s="17">
         <v>8.1666487296306628E-2</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="17">
         <v>1.2037114273282719E-2</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" s="17">
         <v>4.4623162710025623E-2</v>
       </c>
-      <c r="AB50">
+      <c r="AB50" s="17">
         <v>5.1975677523245313E-2</v>
       </c>
-      <c r="AC50">
+      <c r="AC50" s="17">
         <v>2.1851246883508681E-2</v>
       </c>
-      <c r="AD50">
+      <c r="AD50" s="17">
         <v>1.538886315091452E-2</v>
       </c>
-      <c r="AE50">
+      <c r="AE50" s="17">
         <v>2.1547279785269949E-2</v>
       </c>
-      <c r="AF50">
+      <c r="AF50" s="17">
         <v>2.00754282010214E-2</v>
       </c>
-      <c r="AG50">
+      <c r="AG50" s="17">
         <v>-1.3940301581444639E-2</v>
       </c>
-      <c r="AH50">
+      <c r="AH50" s="17">
         <v>1</v>
       </c>
-      <c r="AI50">
+      <c r="AI50" s="17">
         <v>1.50509006041402E-2</v>
       </c>
-      <c r="AJ50">
+      <c r="AJ50" s="17">
         <v>5.0679423802778838E-2</v>
       </c>
-      <c r="AK50">
+      <c r="AK50" s="17">
         <v>0.8505813581353816</v>
       </c>
-      <c r="AL50">
+      <c r="AL50" s="17">
         <v>-1.3940301581444639E-2</v>
       </c>
-      <c r="AM50">
+      <c r="AM50" s="17">
         <v>0.16634131846197431</v>
       </c>
-      <c r="AN50">
+      <c r="AN50" s="17">
         <v>0.13263137110075479</v>
       </c>
-      <c r="AO50">
+      <c r="AO50" s="17">
         <v>1.9394941524011548E-2</v>
       </c>
-      <c r="AP50">
+      <c r="AP50" s="17">
         <v>8.1312389449333056E-2</v>
       </c>
-      <c r="AQ50">
+      <c r="AQ50" s="17">
         <v>0.16634131846197431</v>
       </c>
-      <c r="AR50">
+      <c r="AR50" s="17">
         <v>9.1850978472110489E-2</v>
       </c>
-      <c r="AS50">
+      <c r="AS50" s="17">
         <v>-6.3044632148102603E-2</v>
       </c>
-      <c r="AT50">
+      <c r="AT50" s="17">
         <v>-5.7827338923683837E-2</v>
       </c>
-      <c r="AU50">
+      <c r="AU50" s="17">
         <v>6.4992571506654068E-3</v>
       </c>
-      <c r="AV50">
+      <c r="AV50" s="17">
         <v>3.109317437259616E-2</v>
       </c>
-      <c r="AW50">
+      <c r="AW50" s="17">
         <v>-6.3044632148102603E-2</v>
       </c>
-      <c r="AX50">
+      <c r="AX50" s="17">
         <v>-6.8490143568554179E-2</v>
       </c>
-      <c r="AY50">
+      <c r="AY50" s="17">
         <v>-8.6503905929983207E-2</v>
       </c>
-      <c r="AZ50">
+      <c r="AZ50" s="17">
         <v>7.5273571498671019E-2</v>
       </c>
-      <c r="BA50">
+      <c r="BA50" s="17">
         <v>0.13564180206141571</v>
       </c>
-      <c r="BB50">
+      <c r="BB50" s="17">
         <v>0.18710087201879261</v>
       </c>
-      <c r="BC50">
+      <c r="BC50" s="17">
         <v>2.5250469125994941E-2</v>
       </c>
-      <c r="BD50">
+      <c r="BD50" s="17">
         <v>4.5381412809136108E-2</v>
       </c>
-      <c r="BE50">
+      <c r="BE50" s="17">
         <v>2.4002838695864288E-2</v>
       </c>
-      <c r="BF50">
+      <c r="BF50" s="17">
         <v>0.35850459756535319</v>
       </c>
-      <c r="BG50">
+      <c r="BG50" s="17">
         <v>0.12266468507368231</v>
       </c>
-      <c r="BH50">
+      <c r="BH50" s="17">
         <v>2.6134108550702039E-2</v>
       </c>
-      <c r="BI50">
+      <c r="BI50" s="17">
         <v>3.3249576515365448E-2</v>
       </c>
-      <c r="BJ50">
+      <c r="BJ50" s="17">
         <v>4.2221434377826612E-2</v>
       </c>
-      <c r="BK50">
+      <c r="BK50" s="17">
         <v>7.0491457149338493E-2</v>
       </c>
-      <c r="BL50">
+      <c r="BL50" s="17">
         <v>4.5639459276787267E-2</v>
       </c>
-      <c r="BM50">
+      <c r="BM50" s="17">
         <v>3.9526513375163497E-2</v>
       </c>
-      <c r="BN50">
+      <c r="BN50" s="17">
         <v>1.3597282035214601E-2</v>
       </c>
-      <c r="BO50">
+      <c r="BO50" s="17">
         <v>1.528971762996428E-2</v>
       </c>
-      <c r="BP50">
+      <c r="BP50" s="17">
         <v>1.528971762996428E-2</v>
       </c>
-      <c r="BQ50">
+      <c r="BQ50" s="17">
         <v>2.2074100554026432E-2</v>
       </c>
-      <c r="BR50">
+      <c r="BR50" s="17">
         <v>1.229022587098488E-2</v>
       </c>
-      <c r="BS50">
+      <c r="BS50" s="17">
         <v>7.8191373564896315E-3</v>
       </c>
-      <c r="BT50">
+      <c r="BT50" s="17">
         <v>1.8124331612454251E-2</v>
       </c>
-      <c r="BU50">
+      <c r="BU50" s="17">
         <v>1.984202078131124E-2</v>
       </c>
-      <c r="BV50">
+      <c r="BV50" s="17">
         <v>-4.8506093213799726E-3</v>
       </c>
-      <c r="BW50">
+      <c r="BW50" s="17">
         <v>3.6234192688991911E-2</v>
       </c>
-      <c r="BX50">
+      <c r="BX50" s="17">
         <v>-8.2203038268621872E-4</v>
       </c>
-      <c r="BY50">
+      <c r="BY50" s="17">
         <v>1.5295032750328241E-2</v>
       </c>
-      <c r="BZ50">
+      <c r="BZ50" s="17">
         <v>1.5295032750328241E-2</v>
       </c>
-      <c r="CA50">
+      <c r="CA50" s="17">
         <v>0.118103854827929</v>
       </c>
-      <c r="CB50">
+      <c r="CB50" s="17">
         <v>1.8993025170878911E-4</v>
       </c>
-      <c r="CC50">
+      <c r="CC50" s="17">
         <v>1.6888288433350929E-2</v>
       </c>
-      <c r="CD50">
+      <c r="CD50" s="17">
         <v>-7.2289657207800645E-2</v>
       </c>
-      <c r="CE50">
+      <c r="CE50" s="17">
         <v>-6.0752397548018928E-2</v>
       </c>
-      <c r="CF50">
+      <c r="CF50" s="17">
         <v>-5.6561134243641099E-2</v>
       </c>
-      <c r="CG50">
+      <c r="CG50" s="17">
         <v>8.8003189212957494E-2</v>
       </c>
-      <c r="CH50">
+      <c r="CH50" s="17">
         <v>0.1342353863221572</v>
       </c>
-      <c r="CI50">
+      <c r="CI50" s="17">
         <v>-2.2714468233389129E-2</v>
       </c>
-      <c r="CJ50">
+      <c r="CJ50" s="17">
         <v>-4.4043940139151548E-2</v>
       </c>
-      <c r="CK50">
+      <c r="CK50" s="17">
         <v>4.450981815566258E-2</v>
       </c>
-      <c r="CL50">
+      <c r="CL50" s="17">
         <v>3.8306833604442952E-2</v>
       </c>
-      <c r="CM50">
+      <c r="CM50" s="17">
         <v>-0.1130557326417345</v>
       </c>
-      <c r="CN50">
+      <c r="CN50" s="17">
         <v>-9.0514710942735579E-3</v>
       </c>
-      <c r="CO50">
+      <c r="CO50" s="17">
         <v>1.654802477490315E-2</v>
       </c>
-      <c r="CP50">
+      <c r="CP50" s="17">
         <v>-0.12808274772633849</v>
       </c>
-      <c r="CQ50">
+      <c r="CQ50" s="17">
         <v>3.5798386796427592E-2</v>
       </c>
-      <c r="CR50">
+      <c r="CR50" s="17">
         <v>0.1011645586749685</v>
       </c>
-      <c r="CS50">
+      <c r="CS50" s="17">
         <v>1.36701839080383E-2</v>
       </c>
-      <c r="CT50">
+      <c r="CT50" s="17">
         <v>-0.14318557557012421</v>
       </c>
-      <c r="CU50">
+      <c r="CU50" s="17">
         <v>7.3913793461963501E-2</v>
       </c>
-      <c r="CV50" s="10">
+      <c r="CV50" s="18">
         <v>-5.7523698236458087E-2</v>
       </c>
-      <c r="CW50">
+      <c r="CW50" s="17">
         <v>-4.426498710887504E-2</v>
       </c>
-      <c r="CX50">
+      <c r="CX50" s="17">
         <v>-2.0894916299557621E-2</v>
       </c>
-      <c r="CY50">
+      <c r="CY50" s="17">
         <v>-3.1943615839321593E-2</v>
       </c>
     </row>
@@ -32210,314 +32221,314 @@
         <v>0.2379691099591861</v>
       </c>
     </row>
-    <row r="102" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:103" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="17">
         <v>-0.25204543875145241</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="17">
         <v>1.395227308432917E-2</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="17">
         <v>-5.7954981069573822E-2</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="17">
         <v>-2.078979724094324E-2</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="17">
         <v>0.24176968408020039</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="17">
         <v>3.0874182509401878E-2</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="17">
         <v>-4.1120403774992209E-2</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="17">
         <v>0.15305326585485951</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="17">
         <v>-0.46506167301208923</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="17">
         <v>0.9449864419251498</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="17">
         <v>1</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="17">
         <v>0.13316547315874999</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="17">
         <v>-0.86686884041290946</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="17">
         <v>0.8653735741828652</v>
       </c>
-      <c r="P102">
+      <c r="P102" s="17">
         <v>-4.9946042987329469E-3</v>
       </c>
-      <c r="Q102">
+      <c r="Q102" s="17">
         <v>-0.35135445229878531</v>
       </c>
-      <c r="R102">
+      <c r="R102" s="17">
         <v>8.1467767720649745E-2</v>
       </c>
-      <c r="S102">
+      <c r="S102" s="17">
         <v>0.74855369038559394</v>
       </c>
-      <c r="T102">
+      <c r="T102" s="17">
         <v>0.28313281692637898</v>
       </c>
-      <c r="U102">
+      <c r="U102" s="17">
         <v>-0.86638158418440026</v>
       </c>
-      <c r="V102">
+      <c r="V102" s="17">
         <v>-7.9958370918601172E-3</v>
       </c>
-      <c r="W102" s="3">
+      <c r="W102" s="17">
         <v>-0.72635984662683861</v>
       </c>
-      <c r="X102">
+      <c r="X102" s="17">
         <v>4.8314346172344563E-2</v>
       </c>
-      <c r="Y102">
+      <c r="Y102" s="17">
         <v>-0.34222375585196702</v>
       </c>
-      <c r="Z102">
+      <c r="Z102" s="17">
         <v>-0.34820673085160692</v>
       </c>
-      <c r="AA102">
+      <c r="AA102" s="17">
         <v>-0.2551064676877291</v>
       </c>
-      <c r="AB102">
+      <c r="AB102" s="17">
         <v>-0.34454210220465958</v>
       </c>
-      <c r="AC102">
+      <c r="AC102" s="17">
         <v>4.8314346172344563E-2</v>
       </c>
-      <c r="AD102">
+      <c r="AD102" s="17">
         <v>7.9847884092900334E-2</v>
       </c>
-      <c r="AE102">
+      <c r="AE102" s="17">
         <v>7.6693794965015744E-2</v>
       </c>
-      <c r="AF102">
+      <c r="AF102" s="17">
         <v>6.1245222097307338E-2</v>
       </c>
-      <c r="AG102">
+      <c r="AG102" s="17">
         <v>0.1160120694187568</v>
       </c>
-      <c r="AH102">
+      <c r="AH102" s="17">
         <v>-5.9209431799529623E-2</v>
       </c>
-      <c r="AI102">
+      <c r="AI102" s="17">
         <v>-9.9716452092940971E-2</v>
       </c>
-      <c r="AJ102">
+      <c r="AJ102" s="17">
         <v>2.644958910889814E-2</v>
       </c>
-      <c r="AK102">
+      <c r="AK102" s="17">
         <v>-9.4809594527277302E-2</v>
       </c>
-      <c r="AL102">
+      <c r="AL102" s="17">
         <v>0.1160120694187568</v>
       </c>
-      <c r="AM102">
+      <c r="AM102" s="17">
         <v>-0.25729996151238149</v>
       </c>
-      <c r="AN102">
+      <c r="AN102" s="17">
         <v>-0.35350353060599371</v>
       </c>
-      <c r="AO102">
+      <c r="AO102" s="17">
         <v>-0.36984615406162041</v>
       </c>
-      <c r="AP102">
+      <c r="AP102" s="17">
         <v>-0.24363173667997259</v>
       </c>
-      <c r="AQ102">
+      <c r="AQ102" s="17">
         <v>-0.25729996151238149</v>
       </c>
-      <c r="AR102">
+      <c r="AR102" s="17">
         <v>-0.3672135080170707</v>
       </c>
-      <c r="AS102">
+      <c r="AS102" s="17">
         <v>-0.17681333584701159</v>
       </c>
-      <c r="AT102">
+      <c r="AT102" s="17">
         <v>-0.5987769922965499</v>
       </c>
-      <c r="AU102">
+      <c r="AU102" s="17">
         <v>-0.7063036267268672</v>
       </c>
-      <c r="AV102">
+      <c r="AV102" s="17">
         <v>-0.80073300780209145</v>
       </c>
-      <c r="AW102">
+      <c r="AW102" s="17">
         <v>-0.17681333584701159</v>
       </c>
-      <c r="AX102">
+      <c r="AX102" s="17">
         <v>-0.26022476453339721</v>
       </c>
-      <c r="AY102">
+      <c r="AY102" s="17">
         <v>0.47415783298357789</v>
       </c>
-      <c r="AZ102">
+      <c r="AZ102" s="17">
         <v>-0.3042492855208514</v>
       </c>
-      <c r="BA102">
+      <c r="BA102" s="17">
         <v>-0.46476964254978342</v>
       </c>
-      <c r="BB102">
+      <c r="BB102" s="17">
         <v>-0.5277665018017903</v>
       </c>
-      <c r="BC102">
+      <c r="BC102" s="17">
         <v>7.2846030598696543E-2</v>
       </c>
-      <c r="BD102">
+      <c r="BD102" s="17">
         <v>0.11846081756885091</v>
       </c>
-      <c r="BE102">
+      <c r="BE102" s="17">
         <v>4.5768414384595467E-2</v>
       </c>
-      <c r="BF102">
+      <c r="BF102" s="17">
         <v>-0.37411712389278567</v>
       </c>
-      <c r="BG102">
+      <c r="BG102" s="17">
         <v>-0.28855223634900312</v>
       </c>
-      <c r="BH102">
+      <c r="BH102" s="17">
         <v>-0.36594063588418319</v>
       </c>
-      <c r="BI102">
+      <c r="BI102" s="17">
         <v>-0.47873017385185102</v>
       </c>
-      <c r="BJ102">
+      <c r="BJ102" s="17">
         <v>-0.43611752180167318</v>
       </c>
-      <c r="BK102">
+      <c r="BK102" s="17">
         <v>-0.43369720138090628</v>
       </c>
-      <c r="BL102">
+      <c r="BL102" s="17">
         <v>-0.38932231811395318</v>
       </c>
-      <c r="BM102">
+      <c r="BM102" s="17">
         <v>-0.42932862868058519</v>
       </c>
-      <c r="BN102">
+      <c r="BN102" s="17">
         <v>-2.50174152766642E-2</v>
       </c>
-      <c r="BO102">
+      <c r="BO102" s="17">
         <v>-3.288468876097847E-2</v>
       </c>
-      <c r="BP102">
+      <c r="BP102" s="17">
         <v>-3.288468876097847E-2</v>
       </c>
-      <c r="BQ102">
+      <c r="BQ102" s="17">
         <v>0.2660314113588223</v>
       </c>
-      <c r="BR102">
+      <c r="BR102" s="17">
         <v>-3.9212360327393357E-2</v>
       </c>
-      <c r="BS102">
+      <c r="BS102" s="17">
         <v>-2.155127540919826E-2</v>
       </c>
-      <c r="BT102">
+      <c r="BT102" s="17">
         <v>-1.1940147807145781E-2</v>
       </c>
-      <c r="BU102">
+      <c r="BU102" s="17">
         <v>1.088160964221622E-2</v>
       </c>
-      <c r="BV102">
+      <c r="BV102" s="17">
         <v>-8.4693810929765537E-2</v>
       </c>
-      <c r="BW102">
+      <c r="BW102" s="17">
         <v>-0.71970076746674239</v>
       </c>
-      <c r="BX102">
+      <c r="BX102" s="17">
         <v>0.62215796222072095</v>
       </c>
-      <c r="BY102">
+      <c r="BY102" s="17">
         <v>-3.2886574541949869E-2</v>
       </c>
-      <c r="BZ102">
+      <c r="BZ102" s="17">
         <v>-3.2886574541949869E-2</v>
       </c>
-      <c r="CA102">
+      <c r="CA102" s="17">
         <v>-0.1302304290996979</v>
       </c>
-      <c r="CB102">
+      <c r="CB102" s="17">
         <v>0.41682770487221388</v>
       </c>
-      <c r="CC102">
+      <c r="CC102" s="17">
         <v>0.35501245923226449</v>
       </c>
-      <c r="CD102">
+      <c r="CD102" s="17">
         <v>0.95119804368391137</v>
       </c>
-      <c r="CE102">
+      <c r="CE102" s="17">
         <v>0.92933204582825968</v>
       </c>
-      <c r="CF102">
+      <c r="CF102" s="17">
         <v>0.72700615696039961</v>
       </c>
-      <c r="CG102">
+      <c r="CG102" s="17">
         <v>-0.71787002000140376</v>
       </c>
-      <c r="CH102">
+      <c r="CH102" s="17">
         <v>-0.77962723597665851</v>
       </c>
-      <c r="CI102">
+      <c r="CI102" s="17">
         <v>-0.1866739155232594</v>
       </c>
-      <c r="CJ102">
+      <c r="CJ102" s="17">
         <v>-8.4107488413566564E-2</v>
       </c>
-      <c r="CK102">
+      <c r="CK102" s="17">
         <v>-2.6521700640634339E-2</v>
       </c>
-      <c r="CL102">
+      <c r="CL102" s="17">
         <v>-3.9529916626465912E-2</v>
       </c>
-      <c r="CM102">
+      <c r="CM102" s="17">
         <v>-5.6036546996881757E-2</v>
       </c>
-      <c r="CN102">
+      <c r="CN102" s="17">
         <v>-0.34198068418256983</v>
       </c>
-      <c r="CO102">
+      <c r="CO102" s="17">
         <v>0.13665104654548171</v>
       </c>
-      <c r="CP102">
+      <c r="CP102" s="17">
         <v>-0.22419705301907411</v>
       </c>
-      <c r="CQ102">
+      <c r="CQ102" s="17">
         <v>-0.50583399531465101</v>
       </c>
-      <c r="CR102">
+      <c r="CR102" s="17">
         <v>0.12178891675641559</v>
       </c>
-      <c r="CS102">
+      <c r="CS102" s="17">
         <v>0.18882299765758681</v>
       </c>
-      <c r="CT102">
+      <c r="CT102" s="17">
         <v>-0.29611706952444161</v>
       </c>
-      <c r="CU102">
+      <c r="CU102" s="17">
         <v>-0.47911908257011898</v>
       </c>
-      <c r="CV102" s="10">
+      <c r="CV102" s="18">
         <v>0.90177508673805495</v>
       </c>
-      <c r="CW102">
+      <c r="CW102" s="17">
         <v>8.0076886626465407E-2</v>
       </c>
-      <c r="CX102">
+      <c r="CX102" s="17">
         <v>7.24565557340551E-2</v>
       </c>
-      <c r="CY102">
+      <c r="CY102" s="17">
         <v>5.757836997075496E-2</v>
       </c>
     </row>
